--- a/LrcModify/csv/fix_lrc/lrc_df_ABBA_Angel Eyes.xlsx
+++ b/LrcModify/csv/fix_lrc/lrc_df_ABBA_Angel Eyes.xlsx
@@ -406,12 +406,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[00:07.600]</t>
+          <t>[00:09.990]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -433,12 +433,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[00:16.100]</t>
+          <t>[00:16.240]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -460,12 +460,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[00:20.200]</t>
+          <t>[00:23.850]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -487,12 +487,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[00:27.500]</t>
+          <t>[00:29.080]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -514,12 +514,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[00:27.000]</t>
+          <t>[00:31.730]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -537,12 +537,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[00:29.600]</t>
+          <t>[00:31.990]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -564,12 +564,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[00:38.600]</t>
+          <t>[00:36.490]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[00:39.700]</t>
+          <t>[00:40.200]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -618,12 +618,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[00:43.900]</t>
+          <t>[00:44.220]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -645,12 +645,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[00:49.100]</t>
+          <t>[00:49.240]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -672,12 +672,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[00:57.600]</t>
+          <t>[00:56.390]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -699,12 +699,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[00:58.100]</t>
+          <t>[01:01.840]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -722,12 +722,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[01:04.600]</t>
+          <t>[01:03.390]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[01:07.600]</t>
+          <t>[01:06.390]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[01:05.200]</t>
+          <t>[01:09.750]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[01:11.700]</t>
+          <t>[01:15.800]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[01:16.600]</t>
+          <t>[01:18.990]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -857,12 +857,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[01:18.000]</t>
+          <t>[01:22.730]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[01:24.700]</t>
+          <t>[01:29.700]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[01:35.700]</t>
+          <t>[01:36.200]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[01:36.100]</t>
+          <t>[01:38.040]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -961,12 +961,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[01:41.500]</t>
+          <t>[01:39.480]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -988,12 +988,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[01:47.600]</t>
+          <t>[01:47.290]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[01:56.900]</t>
+          <t>[01:53.620]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[01:57.100]</t>
+          <t>[01:59.040]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1069,12 +1069,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[02:00.800]</t>
+          <t>[02:02.110]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1092,12 +1092,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[02:01.800]</t>
+          <t>[02:02.210]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1119,12 +1119,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[02:02.200]</t>
+          <t>[02:06.750]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[02:11.600]</t>
+          <t>[02:10.390]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[02:10.800]</t>
+          <t>[02:13.910]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1200,12 +1200,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[02:20.900]</t>
+          <t>[02:19.420]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1227,12 +1227,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[02:24.800]</t>
+          <t>[02:27.010]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1254,12 +1254,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[02:35.600]</t>
+          <t>[02:32.590]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1277,12 +1277,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[02:36.900]</t>
+          <t>[02:33.620]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[02:31.900]</t>
+          <t>[02:36.720]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[02:40.300]</t>
+          <t>[02:40.260]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[02:47.200]</t>
+          <t>[02:46.350]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1385,12 +1385,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[02:47.500]</t>
+          <t>[02:49.080]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1412,12 +1412,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[02:53.600]</t>
+          <t>[02:52.390]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[02:57.000]</t>
+          <t>[02:59.930]</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[03:06.900]</t>
+          <t>[03:05.420]</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1493,12 +1493,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[03:11.600]</t>
+          <t>[03:10.390]</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1520,12 +1520,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[03:14.600]</t>
+          <t>[03:13.390]</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1547,12 +1547,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[03:18.600]</t>
+          <t>[03:18.290]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[03:25.200]</t>
+          <t>[03:21.650]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[03:24.300]</t>
+          <t>[03:25.160]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1628,12 +1628,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[03:34.200]</t>
+          <t>[03:32.450]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[03:38.000]</t>
+          <t>[03:38.230]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[03:37.700]</t>
+          <t>[03:40.000]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -1705,12 +1705,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[03:44.400]</t>
+          <t>[03:42.470]</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1732,12 +1732,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[03:51.400]</t>
+          <t>[03:49.470]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1759,12 +1759,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[03:58.200]</t>
+          <t>[03:55.550]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -1782,12 +1782,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[03:53.900]</t>
+          <t>[03:56.920]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>[04:02.600]</t>
+          <t>[04:01.390]</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1836,12 +1836,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[04:03.600]</t>
+          <t>[04:05.090]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1863,12 +1863,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>[04:11.100]</t>
+          <t>[04:08.540]</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1890,12 +1890,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[04:07.200]</t>
+          <t>[04:11.750]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1917,12 +1917,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[04:16.200]</t>
+          <t>[04:16.250]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>[04:23.200]</t>
+          <t>[04:19.650]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1971,12 +1971,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[04:23.200]</t>
+          <t>[04:23.250]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1998,12 +1998,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>00:01.660</t>
+          <t>00:09.999</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[04:26.200]</t>
+          <t>[04:26.250]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
